--- a/docs/StructureDefinition-ServiceRequestReferenciadaLE.xlsx
+++ b/docs/StructureDefinition-ServiceRequestReferenciadaLE.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-19T11:18:06-03:00</t>
+    <t>2023-01-20T14:40:00-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1271,7 +1271,7 @@
     <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
   </si>
   <si>
-    <t>http://minsal.cl/listaespera/ValueSet/VSMotivoDerivacion</t>
+    <t>http://minsal.cl/listaespera/ValueSet/VSDestinoReferenciaCodigo</t>
   </si>
   <si>
     <t>CodeableConcept.coding</t>
@@ -7768,7 +7768,7 @@
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>86</v>
